--- a/development/07-connections/B4.xlsx
+++ b/development/07-connections/B4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Desktop\Graduation-project\development\07-connections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\Graduation-project\development\07-connections\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="11508"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="100">
   <si>
     <t>web length</t>
   </si>
@@ -589,6 +589,9 @@
   </si>
   <si>
     <t>stiffeners weld safety , fillet</t>
+  </si>
+  <si>
+    <t>stiffeners to plate weld area</t>
   </si>
 </sst>
 </file>
@@ -952,7 +955,63 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="26">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1632,27 +1691,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.109375" customWidth="1"/>
-    <col min="23" max="23" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.140625" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
@@ -1678,7 +1737,7 @@
       <c r="V1" s="18"/>
       <c r="W1" s="18"/>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1696,7 +1755,7 @@
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
     </row>
-    <row r="3" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1719,9 +1778,9 @@
       <c r="Q3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="R3" s="9" t="str">
-        <f>IF((B7-L3)/2-L12&gt;0,(B7-L3)/2-L12,"no stiffeners required ")</f>
-        <v xml:space="preserve">no stiffeners required </v>
+      <c r="R3" s="9">
+        <f>IF((B7-L3)/2-L12&gt;0,(B7-L3)/2-L12,0)</f>
+        <v>0</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>15</v>
@@ -1737,7 +1796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -1778,7 +1837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1819,7 +1878,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1860,7 +1919,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1901,7 +1960,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1937,7 +1996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1978,7 +2037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -2009,7 +2068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -2040,7 +2099,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -2076,7 +2135,7 @@
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
     </row>
-    <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -2105,7 +2164,7 @@
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
     </row>
-    <row r="14" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>49</v>
       </c>
@@ -2144,7 +2203,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -2178,14 +2237,14 @@
         <v>57</v>
       </c>
       <c r="V15" s="2">
-        <f>2*B5+2*(B5-B4-2)-B19*2*R6</f>
-        <v>54</v>
+        <f>2*B5+2*(B5-B4-2*B20)-B21*2*R6</f>
+        <v>10</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
@@ -2219,14 +2278,14 @@
         <v>59</v>
       </c>
       <c r="V16" s="2">
-        <f>(B3-2)*2</f>
-        <v>40</v>
+        <f>(B3-2*B19)*2</f>
+        <v>44</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -2247,17 +2306,17 @@
         <v>23</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="V17" s="2">
-        <f>B9/(V15*B17 + V16*B18)</f>
-        <v>0.97142857142857142</v>
+        <f>(B24*R21*0.4*2+B21*(R3-B19)*0.4*2)*2</f>
+        <v>3.295833593303104</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>62</v>
       </c>
@@ -2272,18 +2331,18 @@
       </c>
       <c r="L18" s="20"/>
       <c r="M18" s="21"/>
-      <c r="U18" s="4" t="s">
-        <v>63</v>
+      <c r="U18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="V18" s="2">
-        <f>B10/(V15*B17 + V16*B18)</f>
-        <v>0</v>
+        <f>B9/(V15*B19 + V16*B20+V17)</f>
+        <v>0.74483136112126003</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>88</v>
       </c>
@@ -2309,17 +2368,17 @@
       <c r="R19" s="13"/>
       <c r="S19" s="14"/>
       <c r="U19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V19" s="2">
-        <f>POWER(POWER(V17,2) +3*POWER(V18,2),0.5)</f>
-        <v>0.97142857142857142</v>
+        <f>B12/(V15*B19 + V16*B20+V17)</f>
+        <v>2.1906804738860589E-2</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>84</v>
       </c>
@@ -2340,16 +2399,18 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="16"/>
       <c r="S20" s="17"/>
-      <c r="U20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="V20" s="2" t="str">
-        <f>IF(AND(MAX(V17:V18) &lt; V14, V19 &lt; V14*1.1), "safe", "unsafe")</f>
-        <v>safe</v>
-      </c>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V20" s="2">
+        <f>POWER(POWER(V18,2) +3*POWER(V19,2),0.5)</f>
+        <v>0.74579721157386247</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>85</v>
       </c>
@@ -2373,14 +2434,22 @@
         <v>94</v>
       </c>
       <c r="R21" s="9">
-        <f>IF((B8-B5)/2 - L12 &gt; 0, (B8-B5)/2 - L12, "no stiffeners required")</f>
+        <f>IF((B8-B5)/2 - L12 &gt; 0, (B8-B5)/2 - L12, 0)</f>
         <v>0.51497399895360996</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V21" s="2" t="str">
+        <f>IF(AND(MAX(V18:V19) &lt; V14, V20 &lt; V14*1.1), "safe", "unsafe")</f>
+        <v>safe</v>
+      </c>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>89</v>
       </c>
@@ -2411,7 +2480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>86</v>
       </c>
@@ -2442,7 +2511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>87</v>
       </c>
@@ -2473,7 +2542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K25" s="4" t="s">
         <v>92</v>
       </c>
@@ -2495,7 +2564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K26" s="4" t="s">
         <v>93</v>
       </c>
@@ -2517,7 +2586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K27" s="4" t="s">
         <v>41</v>
       </c>
@@ -2539,7 +2608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K28" s="4" t="s">
         <v>33</v>
       </c>
@@ -2559,7 +2628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q29" s="4" t="s">
         <v>75</v>
       </c>
@@ -2571,7 +2640,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="Q30" s="4" t="s">
         <v>78</v>
       </c>
@@ -2583,7 +2652,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="Q31" s="4" t="s">
         <v>77</v>
       </c>
@@ -2595,7 +2664,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q32" s="4" t="s">
         <v>98</v>
       </c>
@@ -2605,7 +2674,7 @@
       </c>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="17:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q33" s="4" t="s">
         <v>32</v>
       </c>
@@ -2617,7 +2686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="17:19" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="34" spans="17:19" ht="26.25" x14ac:dyDescent="0.4">
       <c r="Q34" s="4" t="s">
         <v>31</v>
       </c>
@@ -2643,93 +2712,101 @@
     <mergeCell ref="Q1:S2"/>
   </mergeCells>
   <conditionalFormatting sqref="V7:V9">
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
-      <formula>"safe"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V18:V19">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V19">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>"unsafe"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V20">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"safe"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V21">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+      <formula>"unsafe"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="3" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="33" operator="lessThan">
       <formula>$R$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R32">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>$R$23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V19">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2758,14 +2835,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
